--- a/Data/Collector_device_template.xlsx
+++ b/Data/Collector_device_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12. Python Src\logParser\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12. Python Src\LogCollector\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87582C74-9A21-40C7-B6BA-B28A5C89DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EA313-D5C7-4F55-B91D-1E660CF3F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Hostname:String:Required</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>Port(SSH):Integer:Required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index:Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,67 +405,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="7" width="17.08203125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08203125" customWidth="1"/>
+    <col min="3" max="8" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Collector_device_template.xlsx
+++ b/Data/Collector_device_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12. Python Src\LogCollector\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EA313-D5C7-4F55-B91D-1E660CF3F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F466CD-9D2E-4215-BE71-A77ABFF72526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -71,15 +74,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLATFORM:String:Default(CISCO_IOS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Port(SSH):Integer:Required</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Index:Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLATFORM:String:Default
+(CISCO_IOS|CISCO_XE|CISCO_NXOS|CISCO_WLC_CAT|CISCO_XR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -408,7 +413,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -420,7 +425,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -429,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -440,8 +445,8 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
